--- a/data/trans_orig/P39C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF371D7-52D6-44C6-86F8-624D760B4295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED437FF3-06B3-472F-8436-EB0949425477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F3556D4-FC62-44C1-B278-B017090D3BF3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A22B108-77A9-4C24-A6C2-28872B2C8DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="516">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2015 (Tasa respuesta: 81,21%)</t>
   </si>
@@ -75,1522 +75,1516 @@
     <t>9,2%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>5,04%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
+    <t>17,29%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>21,53%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7424AA-88FA-45F9-9DD9-35180325AE6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B666A0-0B36-40D9-9F2D-B6815EF2F6D1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2506,7 +2500,7 @@
         <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -2515,13 +2509,13 @@
         <v>211143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2530,13 @@
         <v>124907</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>124</v>
@@ -2551,13 +2545,13 @@
         <v>127463</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>247</v>
@@ -2566,13 +2560,13 @@
         <v>252370</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2581,13 @@
         <v>67099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -2602,13 +2596,13 @@
         <v>75580</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -2617,13 +2611,13 @@
         <v>142679</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2632,13 @@
         <v>81086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
@@ -2653,13 +2647,13 @@
         <v>117095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>189</v>
@@ -2668,13 +2662,13 @@
         <v>198181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,7 +2724,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2742,13 +2736,13 @@
         <v>110565</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -2757,13 +2751,13 @@
         <v>95646</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -2772,13 +2766,13 @@
         <v>206211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2787,13 @@
         <v>200390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>228</v>
@@ -2808,13 +2802,13 @@
         <v>243880</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -2823,13 +2817,13 @@
         <v>444271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2838,13 @@
         <v>243725</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>251</v>
@@ -2859,13 +2853,13 @@
         <v>271960</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>482</v>
@@ -2874,13 +2868,13 @@
         <v>515684</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2889,13 @@
         <v>111347</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -2910,13 +2904,13 @@
         <v>129661</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="M19" s="7">
         <v>222</v>
@@ -2925,13 +2919,13 @@
         <v>241008</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2940,13 @@
         <v>144445</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>165</v>
@@ -2961,13 +2955,13 @@
         <v>178820</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>301</v>
@@ -2976,13 +2970,13 @@
         <v>323265</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3032,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3050,7 +3044,7 @@
         <v>51474</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>152</v>
@@ -3155,10 +3149,10 @@
         <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>213</v>
@@ -3167,13 +3161,13 @@
         <v>228032</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>379</v>
@@ -3182,7 +3176,7 @@
         <v>407827</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>175</v>
@@ -3254,7 +3248,7 @@
         <v>91279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>186</v>
@@ -3361,10 +3355,10 @@
         <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -3373,13 +3367,13 @@
         <v>59678</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -3388,7 +3382,7 @@
         <v>141411</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>201</v>
@@ -3430,7 +3424,7 @@
         <v>206</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>424</v>
@@ -3439,13 +3433,13 @@
         <v>438892</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3454,13 @@
         <v>193119</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>231</v>
@@ -3475,13 +3469,13 @@
         <v>253587</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>425</v>
@@ -3490,13 +3484,13 @@
         <v>446705</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3505,13 @@
         <v>106464</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>122</v>
@@ -3526,13 +3520,13 @@
         <v>136845</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>229</v>
@@ -3541,13 +3535,13 @@
         <v>243309</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3556,13 @@
         <v>133876</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>153</v>
@@ -3577,13 +3571,13 @@
         <v>175197</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>288</v>
@@ -3592,13 +3586,13 @@
         <v>309074</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3660,13 @@
         <v>312194</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>244</v>
@@ -3681,13 +3675,13 @@
         <v>252159</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>540</v>
@@ -3696,13 +3690,13 @@
         <v>564353</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3711,13 @@
         <v>725106</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>743</v>
@@ -3732,13 +3726,13 @@
         <v>779799</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>1434</v>
@@ -3747,13 +3741,13 @@
         <v>1504905</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,28 +3762,28 @@
         <v>767665</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>854</v>
       </c>
       <c r="I36" s="7">
-        <v>915148</v>
+        <v>915147</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>1594</v>
@@ -3798,13 +3792,13 @@
         <v>1682812</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,13 +3813,13 @@
         <v>364084</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>394</v>
@@ -3834,13 +3828,13 @@
         <v>429020</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>742</v>
@@ -3849,13 +3843,13 @@
         <v>793104</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3864,13 @@
         <v>469833</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H38" s="7">
         <v>575</v>
@@ -3885,13 +3879,13 @@
         <v>630977</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>1025</v>
@@ -3900,13 +3894,13 @@
         <v>1100810</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,7 +3927,7 @@
         <v>2810</v>
       </c>
       <c r="I39" s="7">
-        <v>3007103</v>
+        <v>3007102</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -3962,7 +3956,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3983,7 +3977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28805A76-E612-4618-A41F-EADAD934973C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6A5CA8-E728-4BBA-A61B-333C78A497C2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4000,7 +3994,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4107,13 +4101,13 @@
         <v>11054</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -4122,13 +4116,13 @@
         <v>11261</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4137,13 +4131,13 @@
         <v>22315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4152,13 @@
         <v>20522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -4173,13 +4167,13 @@
         <v>20095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -4188,13 +4182,13 @@
         <v>40617</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4203,13 @@
         <v>20913</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H6" s="7">
         <v>46</v>
@@ -4224,13 +4218,13 @@
         <v>22764</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>72</v>
@@ -4239,13 +4233,13 @@
         <v>43677</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4254,13 @@
         <v>12892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -4275,13 +4269,13 @@
         <v>23907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4290,13 +4284,13 @@
         <v>36799</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4305,13 @@
         <v>20892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>75</v>
@@ -4326,13 +4320,13 @@
         <v>41346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -4341,13 +4335,13 @@
         <v>62239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4409,13 @@
         <v>38670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>325</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -4430,13 +4424,13 @@
         <v>55240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>326</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -4445,13 +4439,13 @@
         <v>93910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4460,13 @@
         <v>108351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>174</v>
@@ -4484,10 +4478,10 @@
         <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>286</v>
@@ -4496,13 +4490,13 @@
         <v>219487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4511,13 @@
         <v>126901</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H12" s="7">
         <v>261</v>
@@ -4532,13 +4526,13 @@
         <v>148591</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M12" s="7">
         <v>418</v>
@@ -4547,13 +4541,13 @@
         <v>275492</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4562,13 @@
         <v>96536</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -4583,13 +4577,13 @@
         <v>100750</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>22</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>350</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M13" s="7">
         <v>310</v>
@@ -4598,13 +4592,13 @@
         <v>197286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4613,13 @@
         <v>97659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>104</v>
+        <v>358</v>
       </c>
       <c r="H14" s="7">
         <v>224</v>
@@ -4634,13 +4628,13 @@
         <v>122205</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -4649,13 +4643,13 @@
         <v>219864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,7 +4705,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4723,13 +4717,13 @@
         <v>72445</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -4738,13 +4732,13 @@
         <v>61251</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -4753,13 +4747,13 @@
         <v>133696</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4768,13 @@
         <v>163532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="H17" s="7">
         <v>310</v>
@@ -4789,13 +4783,13 @@
         <v>218893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>477</v>
@@ -4804,13 +4798,13 @@
         <v>382426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4819,13 @@
         <v>238164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="H18" s="7">
         <v>393</v>
@@ -4840,13 +4834,13 @@
         <v>242507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M18" s="7">
         <v>630</v>
@@ -4855,13 +4849,13 @@
         <v>480671</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4870,13 @@
         <v>125904</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>179</v>
+        <v>392</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="H19" s="7">
         <v>227</v>
@@ -4891,13 +4885,13 @@
         <v>146633</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>387</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>370</v>
@@ -4906,13 +4900,13 @@
         <v>272537</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>389</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4921,13 @@
         <v>142337</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>321</v>
@@ -4942,13 +4936,13 @@
         <v>212673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>486</v>
@@ -4957,13 +4951,13 @@
         <v>355010</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,7 +5013,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5031,13 +5025,13 @@
         <v>52194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -5046,13 +5040,13 @@
         <v>48471</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -5061,13 +5055,13 @@
         <v>100665</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>201</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5076,13 @@
         <v>198955</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H23" s="7">
         <v>263</v>
@@ -5097,10 +5091,10 @@
         <v>196314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>413</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>414</v>
@@ -5115,7 +5109,7 @@
         <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>416</v>
@@ -5187,10 +5181,10 @@
         <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>243</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>229</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>133</v>
@@ -5199,13 +5193,13 @@
         <v>78421</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>212</v>
@@ -5214,13 +5208,13 @@
         <v>150815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>107</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5229,13 @@
         <v>92020</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
         <v>191</v>
@@ -5250,13 +5244,13 @@
         <v>120413</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M26" s="7">
         <v>295</v>
@@ -5265,13 +5259,13 @@
         <v>212433</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5333,13 @@
         <v>48138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>42</v>
+        <v>445</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -5354,13 +5348,13 @@
         <v>56752</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M28" s="7">
         <v>121</v>
@@ -5369,13 +5363,13 @@
         <v>104890</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5384,13 @@
         <v>195230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>259</v>
+        <v>453</v>
       </c>
       <c r="H29" s="7">
         <v>301</v>
@@ -5405,13 +5399,13 @@
         <v>211085</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="M29" s="7">
         <v>498</v>
@@ -5420,13 +5414,13 @@
         <v>406316</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5435,13 @@
         <v>239873</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>456</v>
+        <v>379</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H30" s="7">
         <v>452</v>
@@ -5459,10 +5453,10 @@
         <v>160</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M30" s="7">
         <v>721</v>
@@ -5471,13 +5465,13 @@
         <v>555489</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>460</v>
+        <v>133</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5486,13 @@
         <v>138746</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H31" s="7">
         <v>249</v>
@@ -5507,13 +5501,13 @@
         <v>165941</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M31" s="7">
         <v>410</v>
@@ -5522,13 +5516,13 @@
         <v>304687</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>470</v>
+        <v>109</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>71</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,7 +5558,7 @@
         <v>475</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="M32" s="7">
         <v>492</v>
@@ -5579,7 +5573,7 @@
         <v>477</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>57</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,10 +5674,10 @@
         <v>484</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5692,13 @@
         <v>686590</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="H35" s="7">
         <v>1090</v>
@@ -5713,13 +5707,13 @@
         <v>757524</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M35" s="7">
         <v>1770</v>
@@ -5728,13 +5722,13 @@
         <v>1444115</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>492</v>
+        <v>358</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>494</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5743,13 @@
         <v>785706</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>26</v>
+        <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="H36" s="7">
         <v>1426</v>
@@ -5764,13 +5758,13 @@
         <v>1042409</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>498</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M36" s="7">
         <v>2271</v>
@@ -5779,13 +5773,13 @@
         <v>1828115</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>501</v>
+        <v>102</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5794,13 @@
         <v>446471</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="H37" s="7">
         <v>847</v>
@@ -5815,13 +5809,13 @@
         <v>515653</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>62</v>
+        <v>502</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M37" s="7">
         <v>1367</v>
@@ -5830,13 +5824,13 @@
         <v>962124</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>221</v>
+        <v>506</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5845,13 @@
         <v>494388</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="H38" s="7">
         <v>1134</v>
@@ -5866,13 +5860,13 @@
         <v>710489</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="M38" s="7">
         <v>1724</v>
@@ -5881,13 +5875,13 @@
         <v>1204877</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>187</v>
+        <v>514</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,7 +5937,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED437FF3-06B3-472F-8436-EB0949425477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F0DCBEA-903F-4393-A3CE-9FBC5C25AA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0A22B108-77A9-4C24-A6C2-28872B2C8DD0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{122C8594-07C9-46C5-BD3D-223979096090}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="516">
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2015 (Tasa respuesta: 81,21%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="520">
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2016 (Tasa respuesta: 81,21%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 3 años</t>
@@ -75,28 +75,28 @@
     <t>9,2%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -105,1431 +105,1446 @@
     <t>27,45%</t>
   </si>
   <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
   </si>
   <si>
     <t>17,75%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>24,77%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>29,23%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
     <t>35,73%</t>
   </si>
   <si>
@@ -1549,9 +1564,6 @@
   </si>
   <si>
     <t>17,03%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
   </si>
   <si>
     <t>15,13%</t>
@@ -1996,7 +2008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B666A0-0B36-40D9-9F2D-B6815EF2F6D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831DC3EC-0C54-44BF-BD01-AEBE19A29BC2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2772,7 +2784,7 @@
         <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2799,13 @@
         <v>200390</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>228</v>
@@ -2802,13 +2814,13 @@
         <v>243880</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -2817,13 +2829,13 @@
         <v>444271</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2850,13 @@
         <v>243725</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>251</v>
@@ -2853,13 +2865,13 @@
         <v>271960</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>482</v>
@@ -2868,13 +2880,13 @@
         <v>515684</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2901,13 @@
         <v>111347</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -2904,13 +2916,13 @@
         <v>129661</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M19" s="7">
         <v>222</v>
@@ -3044,13 +3056,13 @@
         <v>51474</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -3059,13 +3071,13 @@
         <v>50686</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -3074,13 +3086,13 @@
         <v>102160</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3107,13 @@
         <v>189277</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>169</v>
@@ -3110,13 +3122,13 @@
         <v>177451</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>345</v>
@@ -3125,13 +3137,13 @@
         <v>366728</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3158,13 @@
         <v>179795</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>213</v>
@@ -3161,13 +3173,13 @@
         <v>228032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>379</v>
@@ -3176,13 +3188,13 @@
         <v>407827</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3209,13 @@
         <v>65738</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -3212,13 +3224,13 @@
         <v>74763</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -3266,10 +3278,10 @@
         <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>205</v>
@@ -3278,13 +3290,13 @@
         <v>228462</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,7 +3352,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3352,10 +3364,10 @@
         <v>81733</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>196</v>
@@ -3403,13 +3415,13 @@
         <v>208280</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>218</v>
@@ -3418,13 +3430,13 @@
         <v>230611</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>424</v>
@@ -3433,13 +3445,13 @@
         <v>438892</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3466,13 @@
         <v>193119</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>231</v>
@@ -3469,13 +3481,13 @@
         <v>253587</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>425</v>
@@ -3484,13 +3496,13 @@
         <v>446705</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3517,13 @@
         <v>106464</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>122</v>
@@ -3520,13 +3532,13 @@
         <v>136845</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>229</v>
@@ -3535,13 +3547,13 @@
         <v>243309</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3568,13 @@
         <v>133876</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>153</v>
@@ -3571,13 +3583,13 @@
         <v>175197</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>288</v>
@@ -3586,13 +3598,13 @@
         <v>309074</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3672,13 @@
         <v>312194</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>244</v>
@@ -3675,10 +3687,10 @@
         <v>252159</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>243</v>
@@ -3717,7 +3729,7 @@
         <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
       <c r="H35" s="7">
         <v>743</v>
@@ -3726,13 +3738,13 @@
         <v>779799</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M35" s="7">
         <v>1434</v>
@@ -3741,13 +3753,13 @@
         <v>1504905</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3774,13 @@
         <v>767665</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>854</v>
@@ -3777,13 +3789,13 @@
         <v>915147</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>1594</v>
@@ -3792,13 +3804,13 @@
         <v>1682812</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3825,13 @@
         <v>364084</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H37" s="7">
         <v>394</v>
@@ -3828,13 +3840,13 @@
         <v>429020</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>742</v>
@@ -3843,13 +3855,13 @@
         <v>793104</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3876,13 @@
         <v>469833</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F38" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="G38" s="7" t="s">
-        <v>276</v>
+        <v>104</v>
       </c>
       <c r="H38" s="7">
         <v>575</v>
@@ -3879,13 +3891,13 @@
         <v>630977</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>1025</v>
@@ -3894,13 +3906,13 @@
         <v>1100810</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,7 +3968,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3977,7 +3989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6A5CA8-E728-4BBA-A61B-333C78A497C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53FE15-6D7B-4A2A-90F5-7073C5AC9816}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3994,7 +4006,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4101,13 +4113,13 @@
         <v>11054</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -4116,13 +4128,13 @@
         <v>11261</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>288</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -4131,13 +4143,13 @@
         <v>22315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4164,13 @@
         <v>20522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -4167,13 +4179,13 @@
         <v>20095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -4182,13 +4194,13 @@
         <v>40617</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4215,13 @@
         <v>20913</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="H6" s="7">
         <v>46</v>
@@ -4218,13 +4230,13 @@
         <v>22764</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M6" s="7">
         <v>72</v>
@@ -4233,13 +4245,13 @@
         <v>43677</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,13 +4266,13 @@
         <v>12892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>314</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -4269,13 +4281,13 @@
         <v>23907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4284,13 +4296,13 @@
         <v>36799</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4317,13 @@
         <v>20892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>75</v>
@@ -4320,13 +4332,13 @@
         <v>41346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -4335,13 +4347,13 @@
         <v>62239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,10 +4421,10 @@
         <v>38670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>183</v>
@@ -4424,13 +4436,13 @@
         <v>55240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -4439,13 +4451,13 @@
         <v>93910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4472,13 @@
         <v>108351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H11" s="7">
         <v>174</v>
@@ -4478,10 +4490,10 @@
         <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M11" s="7">
         <v>286</v>
@@ -4490,13 +4502,13 @@
         <v>219487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>341</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4523,13 @@
         <v>126901</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H12" s="7">
         <v>261</v>
@@ -4526,13 +4538,13 @@
         <v>148591</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>418</v>
@@ -4541,13 +4553,13 @@
         <v>275492</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4574,13 @@
         <v>96536</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>346</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -4577,13 +4589,13 @@
         <v>100750</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>22</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>310</v>
@@ -4592,13 +4604,13 @@
         <v>197286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4625,13 @@
         <v>97659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>354</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>224</v>
@@ -4628,13 +4640,13 @@
         <v>122205</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -4643,13 +4655,13 @@
         <v>219864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4729,13 @@
         <v>72445</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -4732,13 +4744,13 @@
         <v>61251</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -4747,13 +4759,13 @@
         <v>133696</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4780,13 @@
         <v>163532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H17" s="7">
         <v>310</v>
@@ -4783,13 +4795,13 @@
         <v>218893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M17" s="7">
         <v>477</v>
@@ -4798,13 +4810,13 @@
         <v>382426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4831,13 @@
         <v>238164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H18" s="7">
         <v>393</v>
@@ -4834,13 +4846,13 @@
         <v>242507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M18" s="7">
         <v>630</v>
@@ -4849,13 +4861,13 @@
         <v>480671</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4882,13 @@
         <v>125904</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H19" s="7">
         <v>227</v>
@@ -4885,13 +4897,13 @@
         <v>146633</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="M19" s="7">
         <v>370</v>
@@ -4900,13 +4912,13 @@
         <v>272537</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>392</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4933,13 @@
         <v>142337</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H20" s="7">
         <v>321</v>
@@ -4936,13 +4948,13 @@
         <v>212673</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>486</v>
@@ -4951,13 +4963,13 @@
         <v>355010</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5037,13 @@
         <v>52194</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -5040,13 +5052,13 @@
         <v>48471</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -5055,13 +5067,13 @@
         <v>100665</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>201</v>
+        <v>409</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5088,13 @@
         <v>198955</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H23" s="7">
         <v>263</v>
@@ -5091,13 +5103,13 @@
         <v>196314</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>444</v>
@@ -5106,13 +5118,13 @@
         <v>395269</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5139,13 @@
         <v>159856</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H24" s="7">
         <v>274</v>
@@ -5142,13 +5154,13 @@
         <v>312930</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M24" s="7">
         <v>430</v>
@@ -5157,13 +5169,13 @@
         <v>472785</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5190,13 @@
         <v>72394</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H25" s="7">
         <v>133</v>
@@ -5193,13 +5205,13 @@
         <v>78421</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>212</v>
@@ -5208,13 +5220,13 @@
         <v>150815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5241,13 @@
         <v>92020</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>191</v>
@@ -5244,13 +5256,13 @@
         <v>120413</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>295</v>
@@ -5259,13 +5271,13 @@
         <v>212433</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5333,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5333,13 +5345,13 @@
         <v>48138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -5348,13 +5360,13 @@
         <v>56752</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>121</v>
@@ -5363,13 +5375,13 @@
         <v>104890</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5396,13 @@
         <v>195230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>248</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>301</v>
@@ -5399,13 +5411,13 @@
         <v>211085</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M29" s="7">
         <v>498</v>
@@ -5414,13 +5426,13 @@
         <v>406316</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5447,13 @@
         <v>239873</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H30" s="7">
         <v>452</v>
@@ -5450,13 +5462,13 @@
         <v>315617</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M30" s="7">
         <v>721</v>
@@ -5465,13 +5477,13 @@
         <v>555489</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>133</v>
+        <v>464</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5498,13 @@
         <v>138746</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H31" s="7">
         <v>249</v>
@@ -5501,13 +5513,13 @@
         <v>165941</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>467</v>
+        <v>229</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>469</v>
+        <v>276</v>
       </c>
       <c r="M31" s="7">
         <v>410</v>
@@ -5516,13 +5528,13 @@
         <v>304687</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>109</v>
+        <v>472</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5549,13 @@
         <v>141480</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H32" s="7">
         <v>323</v>
@@ -5552,13 +5564,13 @@
         <v>213852</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="M32" s="7">
         <v>492</v>
@@ -5567,13 +5579,13 @@
         <v>355332</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5653,13 @@
         <v>222500</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="H34" s="7">
         <v>304</v>
@@ -5656,13 +5668,13 @@
         <v>232976</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M34" s="7">
         <v>518</v>
@@ -5671,13 +5683,13 @@
         <v>455475</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5704,13 @@
         <v>686590</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H35" s="7">
         <v>1090</v>
@@ -5707,13 +5719,13 @@
         <v>757524</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M35" s="7">
         <v>1770</v>
@@ -5722,13 +5734,13 @@
         <v>1444115</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5755,13 @@
         <v>785706</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H36" s="7">
         <v>1426</v>
@@ -5758,13 +5770,13 @@
         <v>1042409</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>498</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="M36" s="7">
         <v>2271</v>
@@ -5773,13 +5785,13 @@
         <v>1828115</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>102</v>
+        <v>501</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5806,13 @@
         <v>446471</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="H37" s="7">
         <v>847</v>
@@ -5809,13 +5821,13 @@
         <v>515653</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="M37" s="7">
         <v>1367</v>
@@ -5824,13 +5836,13 @@
         <v>962124</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>504</v>
+        <v>13</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5857,13 @@
         <v>494388</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H38" s="7">
         <v>1134</v>
@@ -5860,13 +5872,13 @@
         <v>710489</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M38" s="7">
         <v>1724</v>
@@ -5875,13 +5887,13 @@
         <v>1204877</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,7 +5949,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F0DCBEA-903F-4393-A3CE-9FBC5C25AA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E05386BD-C0DC-4A12-BBF9-4C1BFC2B58ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{122C8594-07C9-46C5-BD3D-223979096090}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{33C12E58-D569-43D9-8569-25FF3BC1E0DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="518">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2016 (Tasa respuesta: 81,21%)</t>
   </si>
@@ -75,1528 +75,1522 @@
     <t>9,2%</t>
   </si>
   <si>
-    <t>4,37%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron la glucosa en 2023 (Tasa respuesta: 87,5%)</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>15,08%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
+    <t>21,53%</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831DC3EC-0C54-44BF-BD01-AEBE19A29BC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF26EDE-AC02-4D25-98AE-8B1797BC60A1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2512,7 +2506,7 @@
         <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -2521,13 +2515,13 @@
         <v>211143</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,13 +2536,13 @@
         <v>124907</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>124</v>
@@ -2557,13 +2551,13 @@
         <v>127463</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>247</v>
@@ -2572,13 +2566,13 @@
         <v>252370</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2593,13 +2587,13 @@
         <v>67099</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>74</v>
@@ -2608,13 +2602,13 @@
         <v>75580</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -2623,13 +2617,13 @@
         <v>142679</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2644,13 +2638,13 @@
         <v>81086</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
@@ -2659,13 +2653,13 @@
         <v>117095</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>189</v>
@@ -2674,13 +2668,13 @@
         <v>198181</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,7 +2730,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2748,13 +2742,13 @@
         <v>110565</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -2763,13 +2757,13 @@
         <v>95646</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>192</v>
@@ -2778,13 +2772,13 @@
         <v>206211</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2793,13 @@
         <v>200390</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>228</v>
@@ -2814,13 +2808,13 @@
         <v>243880</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>413</v>
@@ -2829,13 +2823,13 @@
         <v>444271</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2844,13 @@
         <v>243725</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>251</v>
@@ -2865,13 +2859,13 @@
         <v>271960</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>482</v>
@@ -2880,13 +2874,13 @@
         <v>515684</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2895,13 @@
         <v>111347</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -2916,13 +2910,13 @@
         <v>129661</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>222</v>
@@ -2931,13 +2925,13 @@
         <v>241008</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2946,13 @@
         <v>144445</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>165</v>
@@ -2967,13 +2961,13 @@
         <v>178820</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>301</v>
@@ -2982,13 +2976,13 @@
         <v>323265</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3056,13 +3050,13 @@
         <v>51474</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -3071,13 +3065,13 @@
         <v>50686</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>98</v>
@@ -3086,13 +3080,13 @@
         <v>102160</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3101,13 @@
         <v>189277</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>169</v>
@@ -3122,13 +3116,13 @@
         <v>177451</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>345</v>
@@ -3137,13 +3131,13 @@
         <v>366728</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3152,13 @@
         <v>179795</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>213</v>
@@ -3173,13 +3167,13 @@
         <v>228032</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>379</v>
@@ -3188,13 +3182,13 @@
         <v>407827</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,13 +3203,13 @@
         <v>65738</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -3224,13 +3218,13 @@
         <v>74763</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="M25" s="7">
         <v>127</v>
@@ -3260,7 +3254,7 @@
         <v>91279</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>186</v>
@@ -3278,10 +3272,10 @@
         <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>205</v>
@@ -3290,13 +3284,13 @@
         <v>228462</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,7 +3346,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3364,13 +3358,13 @@
         <v>81733</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>56</v>
@@ -3379,13 +3373,13 @@
         <v>59678</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -3394,7 +3388,7 @@
         <v>141411</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>201</v>
@@ -3415,13 +3409,13 @@
         <v>208280</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>218</v>
@@ -3430,13 +3424,13 @@
         <v>230611</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>53</v>
       </c>
       <c r="M29" s="7">
         <v>424</v>
@@ -3445,13 +3439,13 @@
         <v>438892</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3460,13 @@
         <v>193119</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>231</v>
@@ -3481,13 +3475,13 @@
         <v>253587</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>425</v>
@@ -3496,13 +3490,13 @@
         <v>446705</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3511,13 @@
         <v>106464</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>122</v>
@@ -3532,13 +3526,13 @@
         <v>136845</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>229</v>
@@ -3547,13 +3541,13 @@
         <v>243309</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3562,13 @@
         <v>133876</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>153</v>
@@ -3583,13 +3577,13 @@
         <v>175197</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>288</v>
@@ -3598,13 +3592,13 @@
         <v>309074</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3666,13 @@
         <v>312194</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>244</v>
@@ -3687,13 +3681,13 @@
         <v>252159</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>540</v>
@@ -3702,13 +3696,13 @@
         <v>564353</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3717,13 @@
         <v>725106</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H35" s="7">
         <v>743</v>
@@ -3786,7 +3780,7 @@
         <v>854</v>
       </c>
       <c r="I36" s="7">
-        <v>915147</v>
+        <v>915148</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>258</v>
@@ -3795,7 +3789,7 @@
         <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="M36" s="7">
         <v>1594</v>
@@ -3804,13 +3798,13 @@
         <v>1682812</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3819,13 @@
         <v>364084</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>394</v>
@@ -3840,13 +3834,13 @@
         <v>429020</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>742</v>
@@ -3855,13 +3849,13 @@
         <v>793104</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>70</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3870,13 @@
         <v>469833</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>575</v>
@@ -3891,13 +3885,13 @@
         <v>630977</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>1025</v>
@@ -3906,13 +3900,13 @@
         <v>1100810</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,7 +3933,7 @@
         <v>2810</v>
       </c>
       <c r="I39" s="7">
-        <v>3007102</v>
+        <v>3007103</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -3968,7 +3962,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3989,7 +3983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA53FE15-6D7B-4A2A-90F5-7073C5AC9816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98D8A6C-5442-4C9A-8237-F6BAD21D74B3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4006,7 +4000,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4113,13 +4107,13 @@
         <v>11054</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -4128,7 +4122,7 @@
         <v>11261</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>285</v>
@@ -4143,13 +4137,13 @@
         <v>22315</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4158,13 @@
         <v>20522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -4179,13 +4173,13 @@
         <v>20095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -4194,13 +4188,13 @@
         <v>40617</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4209,13 @@
         <v>20913</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H6" s="7">
         <v>46</v>
@@ -4230,13 +4224,13 @@
         <v>22764</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="M6" s="7">
         <v>72</v>
@@ -4245,13 +4239,13 @@
         <v>43677</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4260,13 @@
         <v>12892</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -4281,13 +4275,13 @@
         <v>23907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -4296,10 +4290,10 @@
         <v>36799</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>313</v>
@@ -4427,7 +4421,7 @@
         <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
         <v>73</v>
@@ -4436,13 +4430,13 @@
         <v>55240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
         <v>111</v>
@@ -4451,13 +4445,13 @@
         <v>93910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4466,13 @@
         <v>108351</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>174</v>
@@ -4490,10 +4484,10 @@
         <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>286</v>
@@ -4502,13 +4496,13 @@
         <v>219487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>93</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4517,13 @@
         <v>126901</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H12" s="7">
         <v>261</v>
@@ -4538,13 +4532,13 @@
         <v>148591</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M12" s="7">
         <v>418</v>
@@ -4553,13 +4547,13 @@
         <v>275492</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4568,13 @@
         <v>96536</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>347</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7">
         <v>191</v>
@@ -4589,13 +4583,13 @@
         <v>100750</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>350</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>310</v>
@@ -4604,13 +4598,13 @@
         <v>197286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4619,13 @@
         <v>97659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>104</v>
       </c>
       <c r="H14" s="7">
         <v>224</v>
@@ -4643,10 +4637,10 @@
         <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -4655,13 +4649,13 @@
         <v>219864</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,7 +4711,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4729,13 +4723,13 @@
         <v>72445</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -4744,13 +4738,13 @@
         <v>61251</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -4759,13 +4753,13 @@
         <v>133696</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4774,13 @@
         <v>163532</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>310</v>
@@ -4795,13 +4789,13 @@
         <v>218893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>477</v>
@@ -4810,13 +4804,13 @@
         <v>382426</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4825,13 @@
         <v>238164</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
         <v>393</v>
@@ -4846,13 +4840,13 @@
         <v>242507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>630</v>
@@ -4861,13 +4855,13 @@
         <v>480671</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4876,13 @@
         <v>125904</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="H19" s="7">
         <v>227</v>
@@ -4897,13 +4891,13 @@
         <v>146633</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>390</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M19" s="7">
         <v>370</v>
@@ -4912,13 +4906,13 @@
         <v>272537</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>393</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,13 +4927,13 @@
         <v>142337</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>321</v>
@@ -4948,13 +4942,13 @@
         <v>212673</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>486</v>
@@ -4963,13 +4957,13 @@
         <v>355010</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,7 +5019,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5037,13 +5031,13 @@
         <v>52194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>67</v>
@@ -5052,13 +5046,13 @@
         <v>48471</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
         <v>109</v>
@@ -5067,13 +5061,13 @@
         <v>100665</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>184</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5082,13 @@
         <v>198955</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H23" s="7">
         <v>263</v>
@@ -5103,13 +5097,13 @@
         <v>196314</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>444</v>
@@ -5118,13 +5112,13 @@
         <v>395269</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5139,13 +5133,13 @@
         <v>159856</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H24" s="7">
         <v>274</v>
@@ -5154,13 +5148,13 @@
         <v>312930</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M24" s="7">
         <v>430</v>
@@ -5169,13 +5163,13 @@
         <v>472785</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5184,13 @@
         <v>72394</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>428</v>
+        <v>243</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>429</v>
+        <v>229</v>
       </c>
       <c r="H25" s="7">
         <v>133</v>
@@ -5205,13 +5199,13 @@
         <v>78421</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M25" s="7">
         <v>212</v>
@@ -5220,13 +5214,13 @@
         <v>150815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>433</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5235,13 @@
         <v>92020</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>191</v>
@@ -5256,13 +5250,13 @@
         <v>120413</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>295</v>
@@ -5271,13 +5265,13 @@
         <v>212433</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,7 +5327,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5345,13 +5339,13 @@
         <v>48138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>446</v>
+        <v>42</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -5360,13 +5354,13 @@
         <v>56752</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M28" s="7">
         <v>121</v>
@@ -5375,13 +5369,13 @@
         <v>104890</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5390,13 @@
         <v>195230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>455</v>
+        <v>259</v>
       </c>
       <c r="H29" s="7">
         <v>301</v>
@@ -5411,13 +5405,13 @@
         <v>211085</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>498</v>
@@ -5426,13 +5420,13 @@
         <v>406316</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5441,13 @@
         <v>239873</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H30" s="7">
         <v>452</v>
@@ -5462,13 +5456,13 @@
         <v>315617</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M30" s="7">
         <v>721</v>
@@ -5477,13 +5471,13 @@
         <v>555489</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5498,13 +5492,13 @@
         <v>138746</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H31" s="7">
         <v>249</v>
@@ -5513,13 +5507,13 @@
         <v>165941</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>229</v>
+        <v>466</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>276</v>
+        <v>468</v>
       </c>
       <c r="M31" s="7">
         <v>410</v>
@@ -5528,13 +5522,13 @@
         <v>304687</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>360</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5549,13 +5543,13 @@
         <v>141480</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H32" s="7">
         <v>323</v>
@@ -5564,13 +5558,13 @@
         <v>213852</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>478</v>
+        <v>345</v>
       </c>
       <c r="M32" s="7">
         <v>492</v>
@@ -5579,13 +5573,13 @@
         <v>355332</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>454</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5653,13 +5647,13 @@
         <v>222500</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H34" s="7">
         <v>304</v>
@@ -5668,13 +5662,13 @@
         <v>232976</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M34" s="7">
         <v>518</v>
@@ -5683,13 +5677,13 @@
         <v>455475</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>365</v>
+        <v>485</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5698,13 @@
         <v>686590</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H35" s="7">
         <v>1090</v>
@@ -5719,13 +5713,13 @@
         <v>757524</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>493</v>
+        <v>104</v>
       </c>
       <c r="M35" s="7">
         <v>1770</v>
@@ -5734,13 +5728,13 @@
         <v>1444115</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>355</v>
+        <v>492</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,7 +5749,7 @@
         <v>785706</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>495</v>
@@ -5824,10 +5818,10 @@
         <v>506</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M37" s="7">
         <v>1367</v>
@@ -5836,13 +5830,13 @@
         <v>962124</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>13</v>
+        <v>508</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>509</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>510</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5851,13 @@
         <v>494388</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H38" s="7">
         <v>1134</v>
@@ -5872,13 +5866,13 @@
         <v>710489</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M38" s="7">
         <v>1724</v>
@@ -5887,13 +5881,13 @@
         <v>1204877</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,7 +5943,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
